--- a/Data/F022.BUF.TIS.AN30.UF.Z.D.xlsx
+++ b/Data/F022.BUF.TIS.AN30.UF.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5008"/>
+  <dimension ref="A1:C5012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85502,6 +85502,74 @@
         </is>
       </c>
     </row>
+    <row r="5009">
+      <c r="A5009" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+      <c r="B5009" t="inlineStr">
+        <is>
+          <t>NeuN</t>
+        </is>
+      </c>
+      <c r="C5009" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5010">
+      <c r="A5010" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B5010" t="inlineStr">
+        <is>
+          <t>NeuN</t>
+        </is>
+      </c>
+      <c r="C5010" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5011">
+      <c r="A5011" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B5011" t="inlineStr">
+        <is>
+          <t>NeuN</t>
+        </is>
+      </c>
+      <c r="C5011" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5012">
+      <c r="A5012" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B5012" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="C5012" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.TIS.AN30.UF.Z.D.xlsx
+++ b/Data/F022.BUF.TIS.AN30.UF.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5014"/>
+  <dimension ref="A1:C5015"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85604,6 +85604,23 @@
         </is>
       </c>
     </row>
+    <row r="5015">
+      <c r="A5015" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B5015" t="inlineStr">
+        <is>
+          <t>2.60363636363636</t>
+        </is>
+      </c>
+      <c r="C5015" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.TIS.AN30.UF.Z.D.xlsx
+++ b/Data/F022.BUF.TIS.AN30.UF.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5019"/>
+  <dimension ref="A1:C5020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85689,6 +85689,23 @@
         </is>
       </c>
     </row>
+    <row r="5020">
+      <c r="A5020" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B5020" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="C5020" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.TIS.AN30.UF.Z.D.xlsx
+++ b/Data/F022.BUF.TIS.AN30.UF.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5021"/>
+  <dimension ref="A1:C5022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85723,6 +85723,23 @@
         </is>
       </c>
     </row>
+    <row r="5022">
+      <c r="A5022" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B5022" t="inlineStr">
+        <is>
+          <t>2.735</t>
+        </is>
+      </c>
+      <c r="C5022" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
